--- a/data/income_statement/2digits/size/23_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/23_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>23-Manufacture of other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>23-Manufacture of other non-metallic mineral products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1172 +841,1322 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2794067.50717</v>
+        <v>3132480.41481</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3184415.460020001</v>
+        <v>3483749.51367</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3534347.52952</v>
+        <v>3899501.4234</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3784893.89901</v>
+        <v>4148528.29172</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5719493.305299999</v>
+        <v>6091280.999310001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6086011.433889999</v>
+        <v>6596189.66892</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5951007.710019999</v>
+        <v>6671629.82437</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6164502.4424</v>
+        <v>7041835.13301</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6478297.7404</v>
+        <v>7591762.58884</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13844828.74419</v>
+        <v>14510032.13995</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13585060.36504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14726043.21675</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16278307.647</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2449133.85681</v>
+        <v>2738901.28235</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2876622.04161</v>
+        <v>3143308.4003</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3164499.08504</v>
+        <v>3489848.21994</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3424504.81006</v>
+        <v>3737331.30993</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5221223.544879999</v>
+        <v>5565689.223930001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5555179.784010001</v>
+        <v>6042183.37046</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5475593.56071</v>
+        <v>6138221.60109</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5658115.53021</v>
+        <v>6466267.80516</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5900619.930840001</v>
+        <v>6929906.12115</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12740072.71349</v>
+        <v>13380580.22223</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12288046.68844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13372577.31419</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14719195.457</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>295599.84853</v>
+        <v>334734.04589</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>258072.96178</v>
+        <v>287442.64956</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>310113.0397</v>
+        <v>343873.53876</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>300375.79859</v>
+        <v>345057.25992</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>406596.19717</v>
+        <v>428561.71585</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>435991.43438</v>
+        <v>450953.4504999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>373341.35116</v>
+        <v>417666.9635699999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>413924.4294</v>
+        <v>459011.0119099999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>472254.3955799999</v>
+        <v>534684.2026899999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>837143.04473</v>
+        <v>860174.54402</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1047668.55489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1092456.2806</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1264728.215</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>49333.80183</v>
+        <v>58845.08657</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>49720.45662999999</v>
+        <v>52998.46381</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>59735.40478</v>
+        <v>65779.66470000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>60013.29036</v>
+        <v>66139.72186999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>91673.56325000001</v>
+        <v>97030.05953</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>94840.21550000001</v>
+        <v>103052.84796</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>102072.79815</v>
+        <v>115741.25971</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>92462.48278999999</v>
+        <v>116556.31594</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>105423.41398</v>
+        <v>127172.265</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>267612.98597</v>
+        <v>269277.3737000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>249345.12171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>261009.62196</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>294383.975</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>17186.52486</v>
+        <v>21236.62107</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>16395.09189</v>
+        <v>19562.16296</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>17766.27965</v>
+        <v>21810.72881</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>21567.93686</v>
+        <v>24340.40332</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>28201.96542</v>
+        <v>30362.73977</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>43115.53808</v>
+        <v>47400.33598</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>30529.19471</v>
+        <v>39371.30314</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>32540.16014</v>
+        <v>40026.03783</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>30928.5184</v>
+        <v>174532.97222</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>88773.54183999999</v>
+        <v>100526.79027</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>181027.54604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>136452.29971</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>159788.662</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>8735.233689999999</v>
+        <v>11112.17962</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>11630.97228</v>
+        <v>12776.53765</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>11878.39787</v>
+        <v>13575.87256</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>16300.04281</v>
+        <v>17406.35091</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>22158.31207</v>
+        <v>22887.06021</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>35341.38602</v>
+        <v>38753.78013</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>23957.80702</v>
+        <v>29251.40088</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>27638.43495</v>
+        <v>33232.02187</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>25918.17082</v>
+        <v>168853.01379</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>68028.00706</v>
+        <v>76377.0092</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>156534.03209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>110140.70221</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>136138.292</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6306.57257</v>
+        <v>6914.56907</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2207.28876</v>
+        <v>3648.40118</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3922.62063</v>
+        <v>4992.34831</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3744.55427</v>
+        <v>5037.474620000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3605.25963</v>
+        <v>4922.83074</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5512.66087</v>
+        <v>6073.36597</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3975.53598</v>
+        <v>7133.74994</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2818.6982</v>
+        <v>4437.46029</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2761.29158</v>
+        <v>3189.87656</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>11020.5177</v>
+        <v>13048.24562</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>13938.17262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14906.52281</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>12823.882</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2144.7186</v>
+        <v>3209.87238</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2556.83085</v>
+        <v>3137.22413</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1965.26115</v>
+        <v>3242.50794</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1523.33978</v>
+        <v>1896.57779</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2438.39372</v>
+        <v>2552.84882</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2261.49119</v>
+        <v>2573.18988</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2595.85171</v>
+        <v>2986.15232</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2083.02699</v>
+        <v>2356.55567</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2249.056</v>
+        <v>2490.08187</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9725.01708</v>
+        <v>11101.53545</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10555.34133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11405.07469</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>10826.488</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2776880.98231</v>
+        <v>3111243.79374</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3168020.36813</v>
+        <v>3464187.35071</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3516581.24987</v>
+        <v>3877690.69459</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3763325.96215</v>
+        <v>4124187.888400001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5691291.339879999</v>
+        <v>6060918.259539999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6042895.89581</v>
+        <v>6548789.33294</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5920478.51531</v>
+        <v>6632258.52123</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6131962.28226</v>
+        <v>7001809.09518</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6447369.222</v>
+        <v>7417229.61662</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13756055.20235</v>
+        <v>14409505.34968</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>13404032.819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14589590.91704</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16118518.985</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2279274.08722</v>
+        <v>2557164.95708</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2627954.27449</v>
+        <v>2877174.15556</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2904016.85988</v>
+        <v>3206818.58045</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3092847.94555</v>
+        <v>3390491.37468</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4700780.15157</v>
+        <v>5009402.3449</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5018028.959299999</v>
+        <v>5458611.82651</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4917453.78174</v>
+        <v>5518579.5585</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5105094.76636</v>
+        <v>5840182.37249</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5341755.07026</v>
+        <v>6146844.73195</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11609518.05202</v>
+        <v>12146833.90039</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11357429.37529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12362268.37566</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13493681.621</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1514581.38172</v>
+        <v>1740600.58734</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1746432.06969</v>
+        <v>1963184.2648</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1991469.77154</v>
+        <v>2246502.42389</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2126496.81534</v>
+        <v>2370274.82277</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3260461.0308</v>
+        <v>3528508.1153</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3492289.21767</v>
+        <v>3850546.1218</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3479504.44514</v>
+        <v>3991976.77627</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3561143.76338</v>
+        <v>4162965.91089</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3725023.434219999</v>
+        <v>4345368.5161</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8118325.576030001</v>
+        <v>8590463.92678</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7716896.49712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8521398.5132</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>9312291.488</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>564979.18095</v>
+        <v>589796.5172</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>622225.4919400001</v>
+        <v>637836.8274</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>719908.4322899999</v>
+        <v>753284.73563</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>703578.72428</v>
+        <v>742042.0900900001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1024231.62359</v>
+        <v>1046335.7199</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1127132.93772</v>
+        <v>1176283.62736</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1037510.03888</v>
+        <v>1098673.28805</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1148339.35191</v>
+        <v>1236430.83811</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1208189.85803</v>
+        <v>1330107.15809</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2608429.16279</v>
+        <v>2661685.01922</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2848266.96982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2985771.823669999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3272692.682</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>195274.87062</v>
+        <v>221088.95981</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>255188.79411</v>
+        <v>271419.68045</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>184317.10985</v>
+        <v>196748.7212</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>248438.96014</v>
+        <v>263550.50015</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>395191.91514</v>
+        <v>414187.7644</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>378255.65995</v>
+        <v>404215.34991</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>372913.88021</v>
+        <v>395211.08686</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>368957.97831</v>
+        <v>404769.32561</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>381780.74945</v>
+        <v>439224.5732999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>804901.3446299999</v>
+        <v>821005.94299</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>704570.5309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>757962.43928</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>832006.601</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4438.653929999999</v>
+        <v>5678.89273</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4107.91875</v>
+        <v>4733.382910000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8321.546200000001</v>
+        <v>10282.69973</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>14333.44579</v>
+        <v>14623.96167</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>20895.58204</v>
+        <v>20370.7453</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20351.14396</v>
+        <v>27566.72744</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>27525.41751</v>
+        <v>32718.40731999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>26653.67276</v>
+        <v>36016.29788000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>26761.02856</v>
+        <v>32144.48446</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>77861.96857</v>
+        <v>73679.01139999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>87695.37745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>97135.59951</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>76690.85000000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>497606.8950899999</v>
+        <v>554078.8366599999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>540066.09364</v>
+        <v>587013.19515</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>612564.3899900001</v>
+        <v>670872.11414</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>670478.0165999999</v>
+        <v>733696.51372</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>990511.18831</v>
+        <v>1051515.91464</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1024866.93651</v>
+        <v>1090177.50643</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1003024.73357</v>
+        <v>1113678.96273</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1026867.5159</v>
+        <v>1161626.72269</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1105614.15174</v>
+        <v>1270384.88467</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2146537.15033</v>
+        <v>2262671.44929</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2046603.44371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2227322.54138</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2624837.364</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>383136.46948</v>
+        <v>448590.02432</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>421810.884</v>
+        <v>473761.69379</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>491729.2536699999</v>
+        <v>552143.47355</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>525778.089</v>
+        <v>591473.23306</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>768620.51111</v>
+        <v>815398.9603299999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>797381.5455199999</v>
+        <v>835050.9712499999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>763230.88737</v>
+        <v>838061.81625</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>798458.94661</v>
+        <v>892341.11298</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>837479.9137799999</v>
+        <v>939394.6756900001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1578684.83238</v>
+        <v>1640632.94077</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1654102.03366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1771268.77039</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1826585.572</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1111.36905</v>
+        <v>2115.01512</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1315.26083</v>
+        <v>1589.24031</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1582.94386</v>
+        <v>1753.82577</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1798.69538</v>
+        <v>2002.46942</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1721.19981</v>
+        <v>1777.60568</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3384.45988</v>
+        <v>3396.87345</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1922.64137</v>
+        <v>2192.83738</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4342.210099999999</v>
+        <v>4461.27655</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1565.48841</v>
+        <v>1607.54821</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4445.96604</v>
+        <v>4678.388250000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>9072.611859999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9212.108050000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5803.931</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>128954.28807</v>
+        <v>149427.80099</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>150956.85851</v>
+        <v>171939.31644</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>165469.13711</v>
+        <v>185970.81955</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>178521.69609</v>
+        <v>200442.77081</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>257698.44776</v>
+        <v>276263.01479</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>281592.23833</v>
+        <v>305701.4937000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>251980.84662</v>
+        <v>284934.31706</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>253712.53252</v>
+        <v>303526.01159</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>270048.05395</v>
+        <v>306349.98272</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>625517.61463</v>
+        <v>670068.3751000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>618015.3025699999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>705599.63052</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>654834.9179999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>253070.81236</v>
+        <v>297047.20821</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>269538.76466</v>
+        <v>300233.13704</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>324677.1727</v>
+        <v>364418.82823</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>345457.6975299999</v>
+        <v>389027.9928300001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>509200.86354</v>
+        <v>537358.3398600001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>512404.84731</v>
+        <v>525952.6041</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>509327.39938</v>
+        <v>550934.6618100001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>540404.2039900001</v>
+        <v>584353.82484</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>565866.37142</v>
+        <v>631437.1447599999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>948721.25171</v>
+        <v>965886.17742</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1027014.11923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1056457.03182</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1165946.723</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>114470.42561</v>
+        <v>105488.81234</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>118255.20964</v>
+        <v>113251.50136</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>120835.13632</v>
+        <v>118728.64059</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>144699.9276</v>
+        <v>142223.28066</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>221890.6772</v>
+        <v>236116.95431</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>227485.39099</v>
+        <v>255126.53518</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>239793.8462</v>
+        <v>275617.14648</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>228408.56929</v>
+        <v>269285.60971</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>268134.23796</v>
+        <v>330990.20898</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>567852.3179499999</v>
+        <v>622038.50852</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>392501.4100499999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>456053.7709899999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>798251.792</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>26973.63416</v>
+        <v>50385.80854000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>26226.8197</v>
+        <v>39503.4669</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>33709.70439</v>
+        <v>48021.24436</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>26811.47287</v>
+        <v>36363.67408</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>40374.18503</v>
+        <v>54781.86914</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>47394.84627</v>
+        <v>48223.50828</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>62836.68105</v>
+        <v>86177.35587</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>61638.93607</v>
+        <v>70077.08009999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>63857.26813</v>
+        <v>79340.44673000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>248516.5693</v>
+        <v>286597.61527</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>206987.8096</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>275222.04413</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>318095.393</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>770.70537</v>
+        <v>888.27827</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>664.53583</v>
+        <v>808.004</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>718.32499</v>
+        <v>1111.98234</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>368.87939</v>
+        <v>418.86691</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1381.87391</v>
+        <v>1381.83697</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>334.89739</v>
+        <v>284.86789</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>264.60659</v>
+        <v>249.51621</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>87.99133</v>
+        <v>197.49343</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>852.0256999999999</v>
+        <v>154.39652</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>654.38602</v>
+        <v>203.84073</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>724.13837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>798.83992</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1147.128</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>779.75634</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>7.105</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>114.65415</v>
+        <v>114.64859</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2.15745</v>
+        <v>2.08422</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0.66311</v>
+        <v>0.66261</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>31.20349</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>15.1898</v>
+        <v>16.28549</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>47.48799</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>836.40579</v>
+        <v>841.6493</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>548.04489</v>
+        <v>548.1632799999999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>672.7358300000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>26020.11446</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>917.652</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4034.59697</v>
+        <v>9576.901679999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3003.41804</v>
+        <v>10315.63265</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2992.82415</v>
+        <v>4940.5156</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3312.94301</v>
+        <v>6845.43409</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4152.21045</v>
+        <v>10300.87292</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>5151.8858</v>
+        <v>6824.179099999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5509.90081</v>
+        <v>14074.87755</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6901.50049</v>
+        <v>7594.089690000002</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8301.36234</v>
+        <v>10506.57576</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>24360.42245</v>
+        <v>25464.81518</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>31084.96341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>44103.64355000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>30666.169</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>27.81951</v>
+        <v>9.628200000000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>36.56816999999999</v>
+        <v>48.36617</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>117.70936</v>
+        <v>276.87649</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>169.03673</v>
+        <v>366.50257</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>348.27374</v>
+        <v>417.36704</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>252.47616</v>
+        <v>127.47488</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>87.50708</v>
+        <v>157.68017</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>89.92866000000001</v>
+        <v>82.17580000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>94.62607000000001</v>
+        <v>100.06829</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>475.68479</v>
+        <v>477.4872800000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>533.37112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>619.15675</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>651.448</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>640.8989499999999</v>
+        <v>666.74706</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>780.11186</v>
+        <v>846.7289099999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>481.13886</v>
+        <v>1309.355</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>312.95527</v>
+        <v>577.2255699999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1149.56515</v>
+        <v>986.43381</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>863.01537</v>
+        <v>1293.45849</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>942.79787</v>
+        <v>807.33199</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1137.49743</v>
+        <v>922.6455100000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1502.50918</v>
+        <v>5520.135740000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3433.35334</v>
+        <v>3442.13645</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>11104.46151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>10439.54418</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5065.822</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>279.61556</v>
+        <v>193.18652</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>503.34031</v>
+        <v>111.13017</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>443.93118</v>
+        <v>436.4075300000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>565.81812</v>
+        <v>518.48349</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>402.05415</v>
+        <v>309.91159</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>316.61042</v>
+        <v>958.0603200000002</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>274.47498</v>
+        <v>298.63834</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>471.57919</v>
+        <v>568.8493599999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>131.48863</v>
+        <v>214.08597</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1252.96187</v>
+        <v>1726.36722</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1335.34428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2238.77608</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2075.259</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12291.75667</v>
+        <v>21252.13277</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>10411.23168</v>
+        <v>15966.57059</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>15721.75785</v>
+        <v>25635.02412</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>8485.041300000001</v>
+        <v>14422.30954</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18475.63726</v>
+        <v>29211.87698</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>20029.51977</v>
+        <v>23438.84265</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>34524.19959</v>
+        <v>52088.71862000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>29396.13293</v>
+        <v>35603.69536</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>27821.29571</v>
+        <v>38050.64991000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>158938.76917</v>
+        <v>200935.87189</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>101142.51777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>123111.23071</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>204589.11</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>20.13676</v>
+        <v>296.15589</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>23.05889</v>
+        <v>56.47183</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>61.8903</v>
+        <v>66.89288999999999</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>45.36203</v>
+        <v>62.88063</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>365.65337</v>
+        <v>192.57979</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>391.07909</v>
+        <v>413.50149</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>358.93286</v>
+        <v>378.1256</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>622.45751</v>
+        <v>713.61067</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>384.39357</v>
+        <v>477.94684</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1574.81098</v>
+        <v>1594.1098</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>907.31276</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>499.303</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>94.13016999999999</v>
+        <v>94.02622</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>714.6736500000001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>169.76839</v>
+        <v>41.35053</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>92.78610999999999</v>
+        <v>33.09124</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>71.70919000000001</v>
+        <v>41.65471</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>52.55169</v>
+        <v>46.7315</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>163.36832</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>525.4270300000001</v>
+        <v>677.0270300000001</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>195.4496</v>
+        <v>191.89316</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>92.56951000000001</v>
@@ -2113,272 +2164,307 @@
       <c r="M34" s="48" t="n">
         <v>151.35456</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>36.892</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8813.974199999999</v>
+        <v>16628.99559</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>10082.77627</v>
+        <v>10628.78393</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>12887.70516</v>
+        <v>14088.19127</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>13456.49346</v>
+        <v>13116.79582</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>14026.5447</v>
+        <v>11938.67272</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19971.60709</v>
+        <v>14805.18847</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>20695.70315</v>
+        <v>17942.81358</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>22358.93351</v>
+        <v>23670.00526</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>23737.71154</v>
+        <v>23283.04524</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>57185.56628</v>
+        <v>52112.25393</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>59331.60999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>66832.07115999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>72446.61</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>24021.15493</v>
+        <v>36448.20325999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>16140.74926</v>
+        <v>25738.50312</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>22433.08631</v>
+        <v>34084.66662</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>17497.79213</v>
+        <v>26113.46743</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>36422.30340999999</v>
+        <v>51819.24630000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>43363.19369</v>
+        <v>42579.66118</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>51967.35978</v>
+        <v>61891.93081</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>47679.96811</v>
+        <v>59268.71242</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>41243.99544000001</v>
+        <v>63217.65553</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>217094.91806</v>
+        <v>275557.61214</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>156091.00462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>169833.94631</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>190786.016</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1546.73612</v>
+        <v>1339.01803</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>604.4629100000001</v>
+        <v>921.58573</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>562.6363699999999</v>
+        <v>640.1634799999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>535.82295</v>
+        <v>549.71168</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2424.25424</v>
+        <v>2382.86441</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1642.23801</v>
+        <v>1686.69166</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1069.6026</v>
+        <v>1334.59709</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>947.37927</v>
+        <v>1518.75142</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1015.58164</v>
+        <v>1773.26143</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2543.77728</v>
+        <v>2625.18154</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4111.933919999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3488.40037</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4339.164</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5418.43929</v>
+        <v>6907.22042</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2821.77268</v>
+        <v>4243.87061</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2452.36203</v>
+        <v>3568.379190000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4158.29556</v>
+        <v>4716.29808</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>6861.69479</v>
+        <v>9663.965460000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7828.7801</v>
+        <v>8397.03391</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12289.7095</v>
+        <v>12209.36321</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>14762.62956</v>
+        <v>15723.77944</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5966.988969999999</v>
+        <v>7565.6468</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>33521.483</v>
+        <v>35335.45019</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>27040.90642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>28790.15377</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14982.86</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>283.73785</v>
+        <v>328.56203</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>242.73903</v>
+        <v>242.73028</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>561.38005</v>
+        <v>590.07048</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>336.82778</v>
+        <v>325.73198</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>167.43448</v>
+        <v>142.5095</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2819.42239</v>
+        <v>285.17761</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>66.96919</v>
+        <v>104.3342</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>129.06667</v>
+        <v>120.26549</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>55.34281</v>
+        <v>42.58049</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>550.37365</v>
+        <v>2216.37365</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2407.99171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2416.43231</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>901.796</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>13076.28565</v>
+        <v>22333.38601</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8559.34865</v>
+        <v>13011.058</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>14338.18469</v>
+        <v>23847.95672</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7735.60104</v>
+        <v>15386.47497</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>22134.25852</v>
+        <v>34276.91383</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23948.23611</v>
+        <v>24229.04457</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>31487.66489</v>
+        <v>40236.30554</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>23063.95523</v>
+        <v>33752.50315</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>28909.07672</v>
+        <v>46994.98225</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>161870.8141</v>
+        <v>215533.83214</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>94444.53244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>110653.66605</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>154508.877</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>174.28108</v>
+        <v>181.96579</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>28.49439</v>
+        <v>153.06317</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>22.29885</v>
+        <v>189.9867</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>90.97235999999999</v>
+        <v>99.53908</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>269.90342</v>
+        <v>281.21759</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>434.1112400000001</v>
+        <v>455.28281</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>382.95799</v>
+        <v>402.50754</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>613.4374200000001</v>
+        <v>668.83194</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>308.03279</v>
+        <v>397.65004</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>1462.50605</v>
@@ -2386,35 +2472,40 @@
       <c r="M41" s="48" t="n">
         <v>259.36419</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>458.935</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.56978</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>6.116149999999999</v>
+        <v>20.96384</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>52.90898</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>50.32359</v>
+        <v>32.91213</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>31.87195</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>14.82268</v>
+        <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>5.999999999999999e-05</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>5.999999999999999e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0.42967</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3521.10516</v>
+        <v>5357.481199999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3877.815450000001</v>
+        <v>7145.23149</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4443.31534</v>
+        <v>5195.20107</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4589.94885</v>
+        <v>5002.799510000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4532.88601</v>
+        <v>5071.775509999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6675.58316</v>
+        <v>7526.430620000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6670.45555</v>
+        <v>7604.82317</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8163.499900000001</v>
+        <v>7484.58096</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4988.54284</v>
+        <v>6443.10485</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17145.96398</v>
+        <v>18384.26857</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27826.27594000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>24225.92962</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>15594.384</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>50831.9019</v>
+        <v>71534.44894000002</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>39744.53757</v>
+        <v>52418.91364</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>42916.10980000001</v>
+        <v>65069.69878</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>54222.72435999999</v>
+        <v>69985.87381</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>83934.26625999999</v>
+        <v>97492.60112000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>98538.44438000002</v>
+        <v>118269.46701</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>102063.61041</v>
+        <v>142337.6794</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>119510.17665</v>
+        <v>160554.63141</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>107425.84889</v>
+        <v>162836.00289</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>377046.82839</v>
+        <v>434980.57285</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>413022.87522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>486074.75349</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>524235.554</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>47056.37566</v>
+        <v>63966.50349</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>36774.09</v>
+        <v>48877.85591</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>39539.51448</v>
+        <v>61077.21576</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>50431.62298000001</v>
+        <v>65232.58396</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>76597.76842000001</v>
+        <v>88717.87492</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>90977.4255</v>
+        <v>109925.63311</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>96546.56713</v>
+        <v>134084.88807</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>111949.61564</v>
+        <v>151059.38099</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>100244.177</v>
+        <v>150226.46594</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>349868.86019</v>
+        <v>397253.3236600001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>384219.00288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>444292.19063</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>353373.106</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3775.52624</v>
+        <v>7567.94545</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2970.44757</v>
+        <v>3541.05773</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3376.59532</v>
+        <v>3992.48302</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3791.101380000001</v>
+        <v>4753.289849999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7336.497840000001</v>
+        <v>8774.726199999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7561.018880000001</v>
+        <v>8343.8339</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5517.04328</v>
+        <v>8252.79133</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7560.561009999999</v>
+        <v>9495.25042</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7181.671890000001</v>
+        <v>12609.53695</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>27177.9682</v>
+        <v>37727.24918999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>28803.87234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>41782.56286</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>170862.448</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>66591.00293999999</v>
+        <v>47891.96867999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>88596.74251000001</v>
+        <v>74597.5515</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>89195.6446</v>
+        <v>67595.51955</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>99790.88397999998</v>
+        <v>82487.61350000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>141908.29256</v>
+        <v>141586.97603</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>132978.59919</v>
+        <v>142500.91527</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>148599.55706</v>
+        <v>157564.89214</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>122857.3606</v>
+        <v>119539.34598</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>183321.66176</v>
+        <v>184276.99729</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>222227.1408</v>
+        <v>198097.9388</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>30375.33980999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>75367.11532</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>401325.615</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>20268.41842</v>
+        <v>30720.28623</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>27501.19857</v>
+        <v>34671.44121</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>25722.64426</v>
+        <v>37764.69656</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>30239.44565</v>
+        <v>36914.90585</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>38577.98641</v>
+        <v>47354.09559</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>64070.19789</v>
+        <v>51237.27953000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>42199.78737000001</v>
+        <v>50991.77971</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>51338.69248</v>
+        <v>59097.02197</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>56764.72071</v>
+        <v>119743.74021</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>149660.81288</v>
+        <v>192562.55243</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>201349.05769</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>197502.8416</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>193426.245</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>283.17601</v>
+        <v>1544.13723</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>405.3561100000001</v>
+        <v>433.6270500000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>138.83783</v>
+        <v>85.34263</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>585.6490200000001</v>
+        <v>489.38744</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>667.77027</v>
+        <v>631.34901</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>205.89789</v>
+        <v>554.7512899999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>355.34802</v>
+        <v>471.8381</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1058.44201</v>
+        <v>1199.63803</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>172.52811</v>
+        <v>1845.65109</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1320.87378</v>
+        <v>1319.05491</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3272.95487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3668.11081</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1536.833</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>19985.24241</v>
+        <v>29176.149</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>27095.84246</v>
+        <v>34237.81415999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>25583.80643</v>
+        <v>37679.35393</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>29653.79663</v>
+        <v>36425.51841</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>37910.21614</v>
+        <v>46722.74658</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>63864.3</v>
+        <v>50682.52824000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>41844.43935</v>
+        <v>50519.94161</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>50280.25047</v>
+        <v>57897.38394</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>56592.19260000001</v>
+        <v>117898.08912</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>148339.9391</v>
+        <v>191243.49752</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>198076.10282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>193834.73079</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>191889.412</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>23893.08797</v>
+        <v>38582.11654</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>25502.62068</v>
+        <v>30767.98603</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>112964.93023</v>
+        <v>114258.29112</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>37442.50302</v>
+        <v>45965.35957</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>43469.30561</v>
+        <v>47489.37254</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>123801.11257</v>
+        <v>118616.22131</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>37757.81105</v>
+        <v>55980.81967</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>99364.79790999999</v>
+        <v>108630.92836</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>71803.65343999999</v>
+        <v>94278.25779</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>154033.20648</v>
+        <v>168150.71427</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>159110.4689</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>164177.24213</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>178743.092</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5681.44245</v>
+        <v>9402.75351</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2053.25057</v>
+        <v>4396.85205</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2706.49915</v>
+        <v>6307.139990000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5018.551820000001</v>
+        <v>10108.46733</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6730.007389999999</v>
+        <v>10550.33688</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5125.91044</v>
+        <v>5760.65205</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>3041.4328</v>
+        <v>3159.29425</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6706.78503</v>
+        <v>10587.94498</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4168.14536</v>
+        <v>7907.28979</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9035.062689999999</v>
+        <v>7688.265479999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>27908.56123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>38424.41489</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>55810.388</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2285.51768</v>
+        <v>5108.019119999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1178.91099</v>
+        <v>3636.36249</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3800.73768</v>
+        <v>3156.00795</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3385.56966</v>
+        <v>3484.47381</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5061.579670000001</v>
+        <v>3505.576410000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>886.35236</v>
+        <v>1372.94555</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1009.80157</v>
+        <v>1001.0468</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2287.72467</v>
+        <v>2809.72082</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2240.15988</v>
+        <v>2969.88709</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1788.63826</v>
+        <v>1790.44601</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3681.80744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8690.649529999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13863.754</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>15926.12784</v>
+        <v>24071.34391</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>22270.45912</v>
+        <v>22734.77149</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>106457.6934</v>
+        <v>104795.14318</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>29038.38154</v>
+        <v>32372.41842999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31677.71855</v>
+        <v>33433.45925</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>117788.84977</v>
+        <v>111482.62371</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>33706.57668</v>
+        <v>51820.47861999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>90370.28821000001</v>
+        <v>95233.26256</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>65395.3482</v>
+        <v>83401.08090999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>143209.50553</v>
+        <v>158672.00278</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>127520.10023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>117062.17771</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>109068.95</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>62966.33339</v>
+        <v>40030.13837</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>90595.32040000001</v>
+        <v>78501.00668000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1953.358630000001</v>
+        <v>-8898.075010000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>92587.82661000002</v>
+        <v>73437.15978</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>137016.97336</v>
+        <v>141451.69908</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>73247.68450999999</v>
+        <v>75121.97348999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>153041.53338</v>
+        <v>152575.85218</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>74831.25517</v>
+        <v>70005.43959000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>168282.72903</v>
+        <v>209742.47971</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>217854.7472</v>
+        <v>222509.77696</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>72613.9286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>108692.71479</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>416008.768</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>19284.27357</v>
+        <v>20493.85824</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>23998.25359</v>
+        <v>24594.55297</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24750.47334</v>
+        <v>27265.90485</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25396.6411</v>
+        <v>27721.47927</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>38860.93136</v>
+        <v>39945.19434</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>38445.13367</v>
+        <v>38738.66977</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>39984.54313</v>
+        <v>43390.09326</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>39720.15245</v>
+        <v>42166.89702</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>46147.12624000001</v>
+        <v>49694.93865</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>90158.77081999999</v>
+        <v>90211.88068</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>94248.88154999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>96710.95911999998</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>137646.822</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>43682.05982</v>
+        <v>19536.28013</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>66597.06681</v>
+        <v>53906.45371</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-22797.11471</v>
+        <v>-36163.97986000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>67191.18551</v>
+        <v>45715.68051000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>98156.042</v>
+        <v>101506.50474</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>34802.55084</v>
+        <v>36383.30372</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>113056.99025</v>
+        <v>109185.75892</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>35111.10272000001</v>
+        <v>27838.54257</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>122135.60279</v>
+        <v>160047.54106</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>127695.97638</v>
+        <v>132297.89628</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-21634.95295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11981.75567</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>278361.946</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1818</v>
+        <v>1715</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1878</v>
+        <v>1716</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1985</v>
+        <v>1810</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2045</v>
+        <v>1848</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2335</v>
+        <v>2013</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2409</v>
+        <v>2041</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2497</v>
+        <v>2123</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2595</v>
+        <v>2148</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2679</v>
+        <v>2158</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2366</v>
+        <v>2113</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2081</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>